--- a/data/Shirts/Regular Cutting of Shirts.xlsx
+++ b/data/Shirts/Regular Cutting of Shirts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All Semesters\FYP\Backend\TheExportersLoom-Apis\data\AI Model Data\Shirts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All Semesters\FYP\Backend\TheExportersLoom-Apis\data\Shirts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Quantity of Shirts</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>1-24</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>1000</t>
@@ -174,8 +171,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,16 +517,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,186 +539,186 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C17" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:C17 B1:C1 A2 C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>